--- a/Tables/10 Tables.xlsx
+++ b/Tables/10 Tables.xlsx
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
-    <t>Data set: 50 items. Optimal: 1545</t>
-  </si>
-  <si>
     <t>Parent Selection</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Roulette</t>
+  </si>
+  <si>
+    <t>Data set: 10 items. Optimal: 309</t>
   </si>
 </sst>
 </file>
@@ -142,15 +142,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -159,18 +150,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +163,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375"/>
     <col min="2" max="2" width="20.5703125"/>
@@ -497,326 +497,325 @@
     <col min="5" max="5" width="16"/>
     <col min="6" max="6" width="28.5703125"/>
     <col min="7" max="7" width="24.5703125"/>
-    <col min="8" max="8" width="11.5703125" style="17"/>
+    <col min="8" max="8" width="11.5703125" style="11"/>
     <col min="9" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <f>MAX(Sheet2!F2:F6)</f>
         <v>309</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <f>Sheet2!G2</f>
         <v>309</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="6">
         <f>Sheet2!I2</f>
         <v>1.3617642431999999</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <f>Sheet2!E2</f>
         <v>502.2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
         <f>MAX(Sheet2!F7:F11)</f>
         <v>309</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <f>Sheet2!G7</f>
         <v>309</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="6">
         <f>Sheet2!I7</f>
         <v>1.34361</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <f>Sheet2!E7</f>
         <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
         <f>MAX(Sheet2!F12:F16)</f>
         <v>309</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <f>Sheet2!G12</f>
         <v>309</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <f>Sheet2!I12</f>
         <v>1.2675799999999999</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <f>Sheet2!E12</f>
         <v>502.6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
         <f>MAX(Sheet2!F17:F21)</f>
         <v>309</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <f>Sheet2!G17</f>
         <v>309</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <f>Sheet2!I17</f>
         <v>1.2897539999999998</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <f>Sheet2!E17</f>
         <v>502.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <f>MAX(Sheet2!F22:F26)</f>
         <v>309</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <f>Sheet2!G22</f>
         <v>309</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <f>Sheet2!I22</f>
         <v>21.514339999999997</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <f>Sheet2!E22</f>
         <v>502.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
         <f>MAX(Sheet2!F27:F31)</f>
         <v>309</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <f>Sheet2!G27</f>
         <v>309</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <f>Sheet2!I27</f>
         <v>24.589299999999998</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="6">
         <f>Sheet2!E27</f>
         <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
         <f>MAX(Sheet2!F32:F36)</f>
         <v>309</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <f>Sheet2!G32</f>
         <v>309</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <f>Sheet2!I32</f>
         <v>28.408179999999998</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <f>Sheet2!E32</f>
         <v>502.2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
         <f>MAX(Sheet2!F37:F41)</f>
         <v>309</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
         <f>Sheet2!G37</f>
         <v>309</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="6">
         <f>Sheet2!I37</f>
         <v>27.794459999999997</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="6">
         <f>Sheet2!E37</f>
         <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
         <f>MAX(Sheet2!F42:F46)</f>
         <v>309</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="7">
         <f>Sheet2!G42</f>
         <v>195.6</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="6">
         <f>Sheet2!I42</f>
         <v>2.9051370000000003</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
         <f>MAX(Sheet2!F47:F51)</f>
         <v>309</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="8">
         <f>Sheet2!G47</f>
         <v>309</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="6">
         <f>Sheet2!I47</f>
         <v>2.9846186000000001</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
         <f>MAX(Sheet2!F52:F56)</f>
         <v>309</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="8">
         <f>Sheet2!G52</f>
         <v>234.2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <f>Sheet2!I52</f>
         <v>1.5469820000000001</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
         <f>MAX(Sheet2!F57:F61)</f>
         <v>309</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="8">
         <f>Sheet2!G57</f>
         <v>309</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <f>Sheet2!I57</f>
         <v>1.8652159999999998</v>
       </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="G14" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B11:B12"/>
@@ -840,13 +839,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375"/>
     <col min="2" max="2" width="11.5703125"/>
@@ -857,1045 +856,1045 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5">
-        <v>502</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="2">
+        <v>502</v>
+      </c>
+      <c r="E2" s="1">
         <f>SUM(D2:D6)/5</f>
         <v>502.2</v>
       </c>
-      <c r="F2" s="5">
-        <v>309</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="2">
+        <v>309</v>
+      </c>
+      <c r="G2" s="1">
         <f>SUM(F2:F6)/5</f>
         <v>309</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <v>1.4096</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <f>SUM(H2:H6)/5</f>
         <v>1.3617642431999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5">
-        <v>502</v>
-      </c>
-      <c r="F3" s="5">
-        <v>309</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="2">
+        <v>502</v>
+      </c>
+      <c r="F3" s="2">
+        <v>309</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2">
         <v>1.3496999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5">
-        <v>502</v>
-      </c>
-      <c r="F4" s="5">
-        <v>309</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2">
+        <v>502</v>
+      </c>
+      <c r="F4" s="2">
+        <v>309</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2">
         <v>1.3434999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="2">
         <v>503</v>
       </c>
-      <c r="F5" s="5">
-        <v>309</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5">
+      <c r="F5" s="2">
+        <v>309</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2">
         <v>1.3431</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5">
-        <v>502</v>
-      </c>
-      <c r="F6" s="5">
-        <v>309</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="2">
+        <v>502</v>
+      </c>
+      <c r="F6" s="2">
+        <v>309</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2">
         <v>1.3629212159999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5">
-        <v>502</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>502</v>
+      </c>
+      <c r="E7" s="1">
         <f>SUM(D7:D11)/5</f>
         <v>502</v>
       </c>
-      <c r="F7" s="5">
-        <v>309</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="2">
+        <v>309</v>
+      </c>
+      <c r="G7" s="1">
         <f>SUM(F7:F11)/5</f>
         <v>309</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>1.3390599999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <f>SUM(H7:H11)/5</f>
         <v>1.34361</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5">
-        <v>502</v>
-      </c>
-      <c r="F8" s="5">
-        <v>309</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="2">
+        <v>502</v>
+      </c>
+      <c r="F8" s="2">
+        <v>309</v>
+      </c>
+      <c r="H8" s="3">
         <v>1.3403799999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5">
-        <v>502</v>
-      </c>
-      <c r="F9" s="5">
-        <v>309</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="2">
+        <v>502</v>
+      </c>
+      <c r="F9" s="2">
+        <v>309</v>
+      </c>
+      <c r="H9" s="3">
         <v>1.33961</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5">
-        <v>502</v>
-      </c>
-      <c r="F10" s="5">
-        <v>309</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="2">
+        <v>502</v>
+      </c>
+      <c r="F10" s="2">
+        <v>309</v>
+      </c>
+      <c r="H10" s="3">
         <v>1.3369</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5">
-        <v>502</v>
-      </c>
-      <c r="F11" s="5">
-        <v>309</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="2">
+        <v>502</v>
+      </c>
+      <c r="F11" s="2">
+        <v>309</v>
+      </c>
+      <c r="H11" s="3">
         <v>1.3621000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>502</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>502</v>
+      </c>
+      <c r="E12" s="1">
         <f>SUM(D12:D16)/5</f>
         <v>502.6</v>
       </c>
-      <c r="F12" s="5">
-        <v>309</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2">
+        <v>309</v>
+      </c>
+      <c r="G12" s="1">
         <f>SUM(F12:F16)/5</f>
         <v>309</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>1.2706999999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <f>SUM(H12:H16)/5</f>
         <v>1.2675799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="2">
         <v>504</v>
       </c>
-      <c r="F13" s="5">
-        <v>309</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="F13" s="2">
+        <v>309</v>
+      </c>
+      <c r="H13" s="3">
         <v>1.2665</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5">
-        <v>502</v>
-      </c>
-      <c r="F14" s="5">
-        <v>309</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="2">
+        <v>502</v>
+      </c>
+      <c r="F14" s="2">
+        <v>309</v>
+      </c>
+      <c r="H14" s="3">
         <v>1.264</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="2">
         <v>503</v>
       </c>
-      <c r="F15" s="5">
-        <v>309</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="F15" s="2">
+        <v>309</v>
+      </c>
+      <c r="H15" s="3">
         <v>1.2685999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5">
-        <v>502</v>
-      </c>
-      <c r="F16" s="5">
-        <v>309</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="2">
+        <v>502</v>
+      </c>
+      <c r="F16" s="2">
+        <v>309</v>
+      </c>
+      <c r="H16" s="3">
         <v>1.2681</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5">
-        <v>502</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>502</v>
+      </c>
+      <c r="E17" s="1">
         <f>SUM(D17:D21)/5</f>
         <v>502.4</v>
       </c>
-      <c r="F17" s="5">
-        <v>309</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="2">
+        <v>309</v>
+      </c>
+      <c r="G17" s="1">
         <f>SUM(F17:F21)/5</f>
         <v>309</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>1.2619</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="1">
         <f>SUM(H17:H21)/5</f>
         <v>1.2897539999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5">
-        <v>502</v>
-      </c>
-      <c r="F18" s="5">
-        <v>309</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="2">
+        <v>502</v>
+      </c>
+      <c r="F18" s="2">
+        <v>309</v>
+      </c>
+      <c r="H18" s="3">
         <v>1.26427</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="2">
         <v>504</v>
       </c>
-      <c r="F19" s="5">
-        <v>309</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="F19" s="2">
+        <v>309</v>
+      </c>
+      <c r="H19" s="3">
         <v>1.2662</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5">
-        <v>502</v>
-      </c>
-      <c r="F20" s="5">
-        <v>309</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="2">
+        <v>502</v>
+      </c>
+      <c r="F20" s="2">
+        <v>309</v>
+      </c>
+      <c r="H20" s="3">
         <v>1.3288</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5">
-        <v>502</v>
-      </c>
-      <c r="F21" s="5">
-        <v>309</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="2">
+        <v>502</v>
+      </c>
+      <c r="F21" s="2">
+        <v>309</v>
+      </c>
+      <c r="H21" s="3">
         <v>1.3275999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>503</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <f>SUM(D22:D26)/5</f>
         <v>502.2</v>
       </c>
-      <c r="F22" s="5">
-        <v>309</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="2">
+        <v>309</v>
+      </c>
+      <c r="G22" s="1">
         <f>SUM(F22:F26)/5</f>
         <v>309</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="2">
         <v>20.451599999999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <f>SUM(H22:H26)/5</f>
         <v>21.514339999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5">
-        <v>502</v>
-      </c>
-      <c r="F23" s="5">
-        <v>309</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="2">
+        <v>502</v>
+      </c>
+      <c r="F23" s="2">
+        <v>309</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2">
         <v>18.943899999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5">
-        <v>502</v>
-      </c>
-      <c r="F24" s="5">
-        <v>309</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="2">
+        <v>502</v>
+      </c>
+      <c r="F24" s="2">
+        <v>309</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2">
         <v>21.69</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5">
-        <v>502</v>
-      </c>
-      <c r="F25" s="5">
-        <v>309</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="2">
+        <v>502</v>
+      </c>
+      <c r="F25" s="2">
+        <v>309</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2">
         <v>22.529</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="5">
-        <v>502</v>
-      </c>
-      <c r="F26" s="5">
-        <v>309</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="2">
+        <v>502</v>
+      </c>
+      <c r="F26" s="2">
+        <v>309</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2">
         <v>23.9572</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="5">
-        <v>502</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>502</v>
+      </c>
+      <c r="E27" s="1">
         <f>SUM(D27:D31)/5</f>
         <v>502</v>
       </c>
-      <c r="F27" s="5">
-        <v>309</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="2">
+        <v>309</v>
+      </c>
+      <c r="G27" s="1">
         <f>SUM(F27:F31)/5</f>
         <v>309</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="1">
         <v>24.609500000000001</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="1">
         <f>SUM(H27:H31)/5</f>
         <v>24.589299999999998</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="5">
-        <v>502</v>
-      </c>
-      <c r="F28" s="5">
-        <v>309</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="2">
+        <v>502</v>
+      </c>
+      <c r="F28" s="2">
+        <v>309</v>
+      </c>
+      <c r="H28" s="3">
         <v>24.980799999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="5">
-        <v>502</v>
-      </c>
-      <c r="F29" s="5">
-        <v>309</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="2">
+        <v>502</v>
+      </c>
+      <c r="F29" s="2">
+        <v>309</v>
+      </c>
+      <c r="H29" s="3">
         <v>23.2057</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="2">
         <v>503</v>
       </c>
-      <c r="F30" s="5">
-        <v>309</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="F30" s="2">
+        <v>309</v>
+      </c>
+      <c r="H30" s="3">
         <v>23.433700000000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="5">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="2">
         <v>501</v>
       </c>
-      <c r="F31" s="5">
-        <v>309</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="F31" s="2">
+        <v>309</v>
+      </c>
+      <c r="H31" s="3">
         <v>26.716799999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="5">
-        <v>502</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>502</v>
+      </c>
+      <c r="E32" s="1">
         <f>SUM(D32:D36)/5</f>
         <v>502.2</v>
       </c>
-      <c r="F32" s="5">
-        <v>309</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="2">
+        <v>309</v>
+      </c>
+      <c r="G32" s="1">
         <f>SUM(F32:F36)/5</f>
         <v>309</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <v>27.532800000000002</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="1">
         <f>SUM(H32:H36)/5</f>
         <v>28.408179999999998</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5">
-        <v>502</v>
-      </c>
-      <c r="F33" s="5">
-        <v>309</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="2">
+        <v>502</v>
+      </c>
+      <c r="F33" s="2">
+        <v>309</v>
+      </c>
+      <c r="H33" s="3">
         <v>28.8568</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5">
-        <v>502</v>
-      </c>
-      <c r="F34" s="5">
-        <v>309</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="2">
+        <v>502</v>
+      </c>
+      <c r="F34" s="2">
+        <v>309</v>
+      </c>
+      <c r="H34" s="3">
         <v>28.348400000000002</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5">
-        <v>502</v>
-      </c>
-      <c r="F35" s="5">
-        <v>309</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="2">
+        <v>502</v>
+      </c>
+      <c r="F35" s="2">
+        <v>309</v>
+      </c>
+      <c r="H35" s="3">
         <v>28.692499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="5">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="2">
         <v>503</v>
       </c>
-      <c r="F36" s="5">
-        <v>309</v>
-      </c>
-      <c r="H36" s="6">
+      <c r="F36" s="2">
+        <v>309</v>
+      </c>
+      <c r="H36" s="3">
         <v>28.610399999999998</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="5">
-        <v>502</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>502</v>
+      </c>
+      <c r="E37" s="1">
         <f>SUM(D37:D41)/5</f>
         <v>502</v>
       </c>
-      <c r="F37" s="5">
-        <v>309</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="2">
+        <v>309</v>
+      </c>
+      <c r="G37" s="1">
         <f>SUM(F37:F41)/5</f>
         <v>309</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="3">
         <v>28.0319</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="1">
         <f>SUM(H37:H41)/5</f>
         <v>27.794459999999997</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="5">
-        <v>502</v>
-      </c>
-      <c r="F38" s="5">
-        <v>309</v>
-      </c>
-      <c r="H38" s="6">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="2">
+        <v>502</v>
+      </c>
+      <c r="F38" s="2">
+        <v>309</v>
+      </c>
+      <c r="H38" s="3">
         <v>27.545100000000001</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="5">
-        <v>502</v>
-      </c>
-      <c r="F39" s="5">
-        <v>309</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="2">
+        <v>502</v>
+      </c>
+      <c r="F39" s="2">
+        <v>309</v>
+      </c>
+      <c r="H39" s="3">
         <v>28.027200000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="5">
-        <v>502</v>
-      </c>
-      <c r="F40" s="5">
-        <v>309</v>
-      </c>
-      <c r="H40" s="6">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="2">
+        <v>502</v>
+      </c>
+      <c r="F40" s="2">
+        <v>309</v>
+      </c>
+      <c r="H40" s="3">
         <v>28.2087</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="5">
-        <v>502</v>
-      </c>
-      <c r="F41" s="5">
-        <v>309</v>
-      </c>
-      <c r="H41" s="6">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="2">
+        <v>502</v>
+      </c>
+      <c r="F41" s="2">
+        <v>309</v>
+      </c>
+      <c r="H41" s="3">
         <v>27.159400000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="B42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <f>SUM(D42:D46)/5</f>
         <v>2</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="2">
         <v>212</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <f>SUM(F42:F46)/5</f>
         <v>195.6</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>2.95668</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="1">
         <f>SUM(H42:H46)/5</f>
         <v>2.9051370000000003</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="2">
         <v>225</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="3">
         <v>2.9667699999999999</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="2">
         <v>116</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="3">
         <v>2.9156689999999998</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="2">
         <v>3</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="2">
         <v>116</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="3">
         <v>2.9432</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="2">
         <v>4</v>
       </c>
-      <c r="F46" s="5">
-        <v>309</v>
-      </c>
-      <c r="H46" s="6">
+      <c r="F46" s="2">
+        <v>309</v>
+      </c>
+      <c r="H46" s="3">
         <v>2.743366</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
         <v>5</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="1">
         <f>SUM(D47:D51)/5</f>
         <v>7</v>
       </c>
-      <c r="F47" s="5">
-        <v>309</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47" s="2">
+        <v>309</v>
+      </c>
+      <c r="G47" s="1">
         <f>SUM(F47:F51)/5</f>
         <v>309</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="3">
         <v>3.0105050000000002</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="1">
         <f>SUM(H47:H51)/5</f>
         <v>2.9846186000000001</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="2">
         <v>6</v>
       </c>
-      <c r="F48" s="5">
-        <v>309</v>
-      </c>
-      <c r="H48" s="6">
+      <c r="F48" s="2">
+        <v>309</v>
+      </c>
+      <c r="H48" s="3">
         <v>2.956575</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="2">
         <v>7</v>
       </c>
-      <c r="F49" s="5">
-        <v>309</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="F49" s="2">
+        <v>309</v>
+      </c>
+      <c r="H49" s="3">
         <v>2.9547629999999998</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="2">
         <v>8</v>
       </c>
-      <c r="F50" s="5">
-        <v>309</v>
-      </c>
-      <c r="H50" s="6">
+      <c r="F50" s="2">
+        <v>309</v>
+      </c>
+      <c r="H50" s="3">
         <v>2.9512399999999999</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="5">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="2">
         <v>9</v>
       </c>
-      <c r="F51" s="5">
-        <v>309</v>
-      </c>
-      <c r="H51" s="6">
+      <c r="F51" s="2">
+        <v>309</v>
+      </c>
+      <c r="H51" s="3">
         <v>3.0500099999999999</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2">
         <v>10</v>
       </c>
-      <c r="D52" s="5">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <f>SUM(D52:D56)/5</f>
         <v>12</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="2">
         <v>232</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <f>SUM(F52:F56)/5</f>
         <v>234.2</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="3">
         <v>1.51197</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="1">
         <f>SUM(H52:H56)/5</f>
         <v>1.5469820000000001</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="5">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="2">
         <v>11</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="2">
         <v>187</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="3">
         <v>1.5364500000000001</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="5">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="2">
         <v>12</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="2">
         <v>239</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="3">
         <v>1.5329999999999999</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="2">
         <v>13</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="2">
         <v>204</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="3">
         <v>1.5220400000000001</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="2">
         <v>14</v>
       </c>
-      <c r="F56" s="5">
-        <v>309</v>
-      </c>
-      <c r="H56" s="6">
+      <c r="F56" s="2">
+        <v>309</v>
+      </c>
+      <c r="H56" s="3">
         <v>1.6314500000000001</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2">
         <v>15</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="1">
         <f>SUM(D57:D61)/5</f>
         <v>17</v>
       </c>
-      <c r="F57" s="5">
-        <v>309</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F57" s="2">
+        <v>309</v>
+      </c>
+      <c r="G57" s="1">
         <f>SUM(F57:F61)/5</f>
         <v>309</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="3">
         <v>1.83002</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="1">
         <f>SUM(H57:H61)/5</f>
         <v>1.8652159999999998</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="2">
         <v>16</v>
       </c>
-      <c r="F58" s="5">
-        <v>309</v>
-      </c>
-      <c r="H58" s="6">
+      <c r="F58" s="2">
+        <v>309</v>
+      </c>
+      <c r="H58" s="3">
         <v>1.8633599999999999</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="5">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="2">
         <v>17</v>
       </c>
-      <c r="F59" s="5">
-        <v>309</v>
-      </c>
-      <c r="H59" s="6">
+      <c r="F59" s="2">
+        <v>309</v>
+      </c>
+      <c r="H59" s="3">
         <v>1.8668</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="5">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="2">
         <v>18</v>
       </c>
-      <c r="F60" s="5">
-        <v>309</v>
-      </c>
-      <c r="H60" s="6">
+      <c r="F60" s="2">
+        <v>309</v>
+      </c>
+      <c r="H60" s="3">
         <v>1.8907</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="5">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="2">
         <v>19</v>
       </c>
-      <c r="F61" s="5">
-        <v>309</v>
-      </c>
-      <c r="H61" s="6">
+      <c r="F61" s="2">
+        <v>309</v>
+      </c>
+      <c r="H61" s="3">
         <v>1.8752</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
     <mergeCell ref="A22:A41"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="C22:C26"/>
@@ -1903,13 +1902,12 @@
     <mergeCell ref="B32:B41"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="C37:C41"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C57:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Tables/10 Tables.xlsx
+++ b/Tables/10 Tables.xlsx
@@ -105,12 +105,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,14 +178,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -602,7 +611,7 @@
         <f>Sheet2!G12</f>
         <v>309</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="18">
         <f>Sheet2!I12</f>
         <v>1.2675799999999999</v>
       </c>
@@ -875,13 +884,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2">
@@ -907,9 +916,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2">
         <v>502</v>
       </c>
@@ -922,9 +931,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2">
         <v>502</v>
       </c>
@@ -937,9 +946,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2">
         <v>503</v>
       </c>
@@ -952,9 +961,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="2">
         <v>502</v>
       </c>
@@ -967,9 +976,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2">
@@ -995,9 +1004,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2">
         <v>502</v>
       </c>
@@ -1009,9 +1018,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2">
         <v>502</v>
       </c>
@@ -1023,9 +1032,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2">
         <v>502</v>
       </c>
@@ -1037,9 +1046,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2">
         <v>502</v>
       </c>
@@ -1051,11 +1060,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2">
@@ -1081,9 +1090,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="2">
         <v>504</v>
       </c>
@@ -1095,9 +1104,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="2">
         <v>502</v>
       </c>
@@ -1109,9 +1118,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="2">
         <v>503</v>
       </c>
@@ -1123,9 +1132,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="2">
         <v>502</v>
       </c>
@@ -1137,9 +1146,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2">
@@ -1165,9 +1174,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="2">
         <v>502</v>
       </c>
@@ -1179,9 +1188,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="2">
         <v>504</v>
       </c>
@@ -1193,9 +1202,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="2">
         <v>502</v>
       </c>
@@ -1207,9 +1216,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="2">
         <v>502</v>
       </c>
@@ -1221,13 +1230,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2">
@@ -1253,9 +1262,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="2">
         <v>502</v>
       </c>
@@ -1268,9 +1277,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="2">
         <v>502</v>
       </c>
@@ -1283,9 +1292,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="2">
         <v>502</v>
       </c>
@@ -1298,9 +1307,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="2">
         <v>502</v>
       </c>
@@ -1313,9 +1322,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2">
@@ -1341,9 +1350,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="2">
         <v>502</v>
       </c>
@@ -1355,9 +1364,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="2">
         <v>502</v>
       </c>
@@ -1369,9 +1378,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="2">
         <v>503</v>
       </c>
@@ -1383,9 +1392,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="2">
         <v>501</v>
       </c>
@@ -1397,11 +1406,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2">
@@ -1427,9 +1436,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="2">
         <v>502</v>
       </c>
@@ -1441,9 +1450,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="2">
         <v>502</v>
       </c>
@@ -1455,9 +1464,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="2">
         <v>502</v>
       </c>
@@ -1469,9 +1478,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="2">
         <v>503</v>
       </c>
@@ -1483,9 +1492,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2">
@@ -1511,9 +1520,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="2">
         <v>502</v>
       </c>
@@ -1525,9 +1534,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="2">
         <v>502</v>
       </c>
@@ -1539,9 +1548,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="2">
         <v>502</v>
       </c>
@@ -1553,9 +1562,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="2">
         <v>502</v>
       </c>
@@ -1567,10 +1576,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2">
@@ -1596,8 +1605,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="2">
         <v>1</v>
       </c>
@@ -1609,8 +1618,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="2">
         <v>2</v>
       </c>
@@ -1622,8 +1631,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="2">
         <v>3</v>
       </c>
@@ -1635,8 +1644,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="2">
         <v>4</v>
       </c>
@@ -1648,8 +1657,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="2">
@@ -1675,8 +1684,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="2">
         <v>6</v>
       </c>
@@ -1688,8 +1697,8 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="2">
         <v>7</v>
       </c>
@@ -1701,8 +1710,8 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="2">
         <v>8</v>
       </c>
@@ -1714,8 +1723,8 @@
       </c>
     </row>
     <row r="51" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="2">
         <v>9</v>
       </c>
@@ -1727,10 +1736,10 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2">
@@ -1756,8 +1765,8 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="2">
         <v>11</v>
       </c>
@@ -1769,8 +1778,8 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="2">
         <v>12</v>
       </c>
@@ -1782,8 +1791,8 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="2">
         <v>13</v>
       </c>
@@ -1795,8 +1804,8 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="2">
         <v>14</v>
       </c>
@@ -1808,8 +1817,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2">
@@ -1835,8 +1844,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="2">
         <v>16</v>
       </c>
@@ -1848,8 +1857,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="2">
         <v>17</v>
       </c>
@@ -1861,8 +1870,8 @@
       </c>
     </row>
     <row r="60" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="2">
         <v>18</v>
       </c>
@@ -1874,8 +1883,8 @@
       </c>
     </row>
     <row r="61" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="2">
         <v>19</v>
       </c>
@@ -1888,6 +1897,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="A22:A41"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C6"/>
@@ -1895,19 +1917,6 @@
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A22:A41"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C57:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
